--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang3/2.XuLyBH/XLBH2303_GPSTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang3/2.XuLyBH/XLBH2303_GPSTayNinh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="45" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="96">
   <si>
     <t>STT</t>
   </si>
@@ -277,6 +277,54 @@
   </si>
   <si>
     <t>LK, NCFW</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15555</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi PM</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>Thiết bị off motion</t>
+  </si>
+  <si>
+    <t>Mở motion, tắt ngủ</t>
+  </si>
+  <si>
+    <t>Thiết bị hỏng diode chống quá áp</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Thay connector, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thay diode chống quá áp, thay MCU</t>
+  </si>
+  <si>
+    <t>PM+PC</t>
+  </si>
+  <si>
+    <t>MCU, NG</t>
+  </si>
+  <si>
+    <t>Còn BH</t>
+  </si>
+  <si>
+    <t>HHDV</t>
+  </si>
+  <si>
+    <t>Thiết bị thuộc ĐL khác</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -482,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -715,6 +763,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -730,34 +802,13 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1066,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1099,43 +1150,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1180,58 +1231,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="86"/>
-      <c r="L4" s="83" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="83" t="s">
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="77" t="s">
         <v>1</v>
       </c>
@@ -1262,17 +1313,17 @@
       <c r="K5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1282,7 +1333,9 @@
       <c r="B6" s="66">
         <v>44998</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="66">
+        <v>45000</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -1293,20 +1346,36 @@
       <c r="G6" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="39"/>
+      <c r="H6" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
+      <c r="M6" s="67" t="s">
+        <v>86</v>
+      </c>
       <c r="N6" s="68"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="63"/>
+      <c r="O6" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="63" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="70"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1321,7 +1390,9 @@
       <c r="B7" s="66">
         <v>44998</v>
       </c>
-      <c r="C7" s="66"/>
+      <c r="C7" s="66">
+        <v>45000</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -1333,19 +1404,33 @@
         <v>66</v>
       </c>
       <c r="H7" s="63"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="39"/>
+      <c r="I7" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="K7" s="67"/>
       <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
+      <c r="M7" s="67" t="s">
+        <v>86</v>
+      </c>
       <c r="N7" s="68"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="63"/>
+      <c r="O7" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="63" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1358,7 +1443,9 @@
       <c r="B8" s="66">
         <v>44998</v>
       </c>
-      <c r="C8" s="66"/>
+      <c r="C8" s="66">
+        <v>45000</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>44</v>
       </c>
@@ -1369,20 +1456,38 @@
       <c r="G8" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="39"/>
+      <c r="H8" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="67"/>
+      <c r="L8" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="67" t="s">
+        <v>82</v>
+      </c>
       <c r="N8" s="68"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="63"/>
+      <c r="O8" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="63" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1395,7 +1500,9 @@
       <c r="B9" s="66">
         <v>44998</v>
       </c>
-      <c r="C9" s="62"/>
+      <c r="C9" s="66">
+        <v>45000</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>44</v>
       </c>
@@ -1415,15 +1522,25 @@
       </c>
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="M9" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="68"/>
+      <c r="O9" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="63" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1436,7 +1553,9 @@
       <c r="B10" s="66">
         <v>44998</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="66">
+        <v>45000</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>44</v>
       </c>
@@ -1447,7 +1566,9 @@
       <c r="G10" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="I10" s="48" t="s">
         <v>71</v>
       </c>
@@ -1457,26 +1578,26 @@
       <c r="K10" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="L10" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="39" t="s">
+      <c r="L10" s="58"/>
+      <c r="M10" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R10" s="37"/>
+      <c r="Q10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1489,7 +1610,9 @@
       <c r="B11" s="66">
         <v>44998</v>
       </c>
-      <c r="C11" s="62"/>
+      <c r="C11" s="66">
+        <v>45000</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>44</v>
       </c>
@@ -1500,7 +1623,9 @@
       <c r="G11" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="37"/>
+      <c r="H11" s="93" t="s">
+        <v>92</v>
+      </c>
       <c r="I11" s="54" t="s">
         <v>72</v>
       </c>
@@ -1511,15 +1636,25 @@
         <v>75</v>
       </c>
       <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="M11" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
+      <c r="O11" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1532,7 +1667,9 @@
       <c r="B12" s="66">
         <v>44998</v>
       </c>
-      <c r="C12" s="62"/>
+      <c r="C12" s="66">
+        <v>45000</v>
+      </c>
       <c r="D12" s="37" t="s">
         <v>44</v>
       </c>
@@ -1543,7 +1680,9 @@
       <c r="G12" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="93" t="s">
+        <v>92</v>
+      </c>
       <c r="I12" s="54" t="s">
         <v>74</v>
       </c>
@@ -1572,7 +1711,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1587,7 +1726,9 @@
       <c r="B13" s="66">
         <v>44998</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="66">
+        <v>45000</v>
+      </c>
       <c r="D13" s="37" t="s">
         <v>44</v>
       </c>
@@ -1599,21 +1740,35 @@
         <v>66</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="1"/>
+      <c r="I13" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="K13" s="39"/>
       <c r="L13" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="M13" s="39"/>
+      <c r="M13" s="39" t="s">
+        <v>87</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="37"/>
+      <c r="O13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1642,7 +1797,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1671,7 +1826,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1700,7 +1855,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1744,7 +1899,9 @@
       <c r="F18" s="49"/>
       <c r="G18" s="37"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="54"/>
+      <c r="I18" s="54" t="s">
+        <v>95</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1819,7 +1976,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -1851,7 +2008,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1883,7 +2040,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -2160,7 +2317,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2288,7 +2445,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2320,7 +2477,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -2352,7 +2509,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2470,7 +2627,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -2956,8 +3113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showZeros="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2989,43 +3146,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3070,58 +3227,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="86"/>
-      <c r="L4" s="83" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="83" t="s">
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="77" t="s">
         <v>1</v>
       </c>
@@ -3152,17 +3309,17 @@
       <c r="K5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3172,7 +3329,9 @@
       <c r="B6" s="66">
         <v>44998</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="66">
+        <v>45000</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>45</v>
       </c>
@@ -3183,20 +3342,34 @@
       <c r="G6" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="54"/>
+      <c r="H6" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>74</v>
+      </c>
       <c r="J6" s="39"/>
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
+      <c r="M6" s="67" t="s">
+        <v>86</v>
+      </c>
       <c r="N6" s="68"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="63"/>
+      <c r="O6" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="63" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="70"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3211,7 +3384,9 @@
       <c r="B7" s="66">
         <v>44998</v>
       </c>
-      <c r="C7" s="66"/>
+      <c r="C7" s="66">
+        <v>45000</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>45</v>
       </c>
@@ -3223,19 +3398,33 @@
         <v>66</v>
       </c>
       <c r="H7" s="63"/>
-      <c r="I7" s="54"/>
+      <c r="I7" s="54" t="s">
+        <v>74</v>
+      </c>
       <c r="J7" s="39"/>
       <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
+      <c r="L7" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="67" t="s">
+        <v>84</v>
+      </c>
       <c r="N7" s="68"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="63"/>
+      <c r="O7" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="63" t="s">
+        <v>23</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3264,7 +3453,7 @@
       <c r="R8" s="63"/>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3293,7 +3482,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3322,7 +3511,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3351,7 +3540,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3380,7 +3569,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3411,7 +3600,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3440,7 +3629,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3469,7 +3658,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3498,7 +3687,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3617,7 +3806,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -3990,7 +4179,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -4118,7 +4307,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -4150,7 +4339,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4754,8 +4943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4787,43 +4976,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4868,58 +5057,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="86"/>
-      <c r="L4" s="83" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="83" t="s">
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -4950,17 +5139,17 @@
       <c r="K5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4970,7 +5159,9 @@
       <c r="B6" s="66">
         <v>44998</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="66">
+        <v>45000</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>69</v>
       </c>
@@ -4979,22 +5170,36 @@
       </c>
       <c r="F6" s="49"/>
       <c r="G6" s="37" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="H6" s="71"/>
-      <c r="I6" s="54"/>
+      <c r="I6" s="48" t="s">
+        <v>74</v>
+      </c>
       <c r="J6" s="39"/>
       <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
+      <c r="L6" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" s="67" t="s">
+        <v>88</v>
+      </c>
       <c r="N6" s="68"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="63"/>
+      <c r="O6" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" s="63" t="s">
+        <v>90</v>
+      </c>
       <c r="S6" s="70"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5025,7 +5230,7 @@
       <c r="R7" s="63"/>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5054,7 +5259,7 @@
       <c r="R8" s="63"/>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5083,7 +5288,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5112,7 +5317,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5141,7 +5346,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5170,7 +5375,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5201,7 +5406,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5230,7 +5435,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5259,7 +5464,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5288,7 +5493,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5588,7 +5793,7 @@
       </c>
       <c r="V26" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="13"/>
     </row>
@@ -5684,7 +5889,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -5940,7 +6145,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6577,43 +6782,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -6658,58 +6863,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -6734,23 +6939,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6776,7 +6981,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6807,7 +7012,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6836,7 +7041,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6865,7 +7070,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6894,7 +7099,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6923,7 +7128,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6952,7 +7157,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6983,7 +7188,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7012,7 +7217,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7041,7 +7246,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7070,7 +7275,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
